--- a/cv/repsonse/3.xlsx
+++ b/cv/repsonse/3.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,6 +442,11 @@
           <t>Nationality</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Designation</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -464,6 +469,18 @@
           <t>Emirati</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>engineers, and contractors to ensure
+2016 - 2021
+accurate, 3D, SketchUp, Revit, Microsoft Word
+Created, Pvt, Ltd., Microsoft Excel, Microsoft Powerpoint, ar.abdulrahmanvb@gmail.com
+Monnaie Architects &amp;, Develop, University of Calicut
+Coordinated, Dubai, ARCHITECTURAL DETAILER | DRAFTSMAN
+ABOUT ME
+Detail-oriented, UAE</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -486,11 +503,21 @@
           <t>Emirati</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Cardiac, Ecg, Dubai, GVHSS, GNM Nursing, American Safety &amp;
+Health Institute, Glucometer, Female
+Iqraa International Hospital And Research
+D.O.B, Iqraa International Hospital And Research
+Centre, ABG Analysis, DHA, ATHIRA K K, GGHSS, O2 machineSKILLS &amp; EXPERTIZE
+Patient Care Patient Assessment, Oral &amp; Rectal), Medical College, Digital, Infection Control Patient Education, INTERESTS Dubai, UAE, CNO Right, NURSE, Pulse Oxymeter</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dr VIDHI SHAH </t>
+          <t>DR. VIDHI SHAH MBBS, DNB (OBSTETRICS &amp; GYNECOLOGY), MRCOG (UK), MRCPI (IRELAND), EBCOG</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -506,13 +533,20 @@
       <c r="D4" t="inlineStr">
         <is>
           <t>British</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>• Patient Education, UK, Cosmetic Gynecology, OBSTETRICS &amp; GYNECOLOGY, Accomplished Obstetrician &amp; Gynecologist, Oman, CPD, Consultant Obstetrician &amp; Gynecologist
+Professional Experience Saraswati Hospital, • Surgical Expertise, Sanchore, Ahmedabad, CONGRESS, LONDON, • Team Collaboration: Coordinated, Byculla, the RCOG World Congress, Consultant Obstetrician &amp; Gynecologist
+Professional Experien, DHA, • Diagnostic Evaluation, Ireland, CERTIFICATIONS, DR, Broad Ligament Pregnancy, Kesar Sal Medical College, GMC REGISTERED, • Fellowship, • Education &amp; Training: Actively, Obstetrics &amp; Gynecology, VIDHI SHAH MBBS, DNB, D&amp;C, Mumbai, GMC, Resident, Obstetrics &amp; Gynecology LG Municipal Hospital</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Engineering Industrial Tech</t>
+          <t>First Last Name</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -528,6 +562,13 @@
       <c r="D5" t="inlineStr">
         <is>
           <t>Not Found</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ElectricalCircuits, LA, ProgrammingforTechnologists, BatonRouge, Cargill May2022, leaderbyorganizingteammeetings,trackingprogress,andpro, Co-Captain, EngineerIntern, BreauxBridge, June2023, Electromagnetics, engineersample
+SUMMARYOFQUALIFICATIONS
+● Experiencedindesi</t>
         </is>
       </c>
     </row>
@@ -549,7 +590,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Emirati, British</t>
+          <t>British, Emirati</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ADL, Lotus, UK, Microsoft Office Suite, Urdu Advanced, • - Developed, Khyber medical university, Abu Dhabi, PCL, • Utilized, DOH, DHA, DPT, BLS, OA, http://www.linkedin.com/in/ib, • Conducted, Mohmand, CHD, UAE, • Successfully, Coordinated, Khyber medical university ---02/2015, EHR, Geriatric, ACL</t>
         </is>
       </c>
     </row>
@@ -574,70 +620,131 @@
           <t>Indian</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Server/System Administrator, Bachelor of Technology, Thiruvankulam, Kerala, • Configured, • Performed, • External Recruitment &amp; Internal Recruitment
+•, • Marital Status, LAN, • Monitored, ENGINEERING, KOTTARAKKARA,
+• Windows
+• Cloud Storage
+KERAL, developers regarding any bugs or issues.
+T HOMASMOUNT PVT C, HSE, • Managed, • Microsoft Office, WAN, Server
+Management, India</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Masab</t>
+          <t>EXECUTIVE PROFILE</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>masabkalave@gmail.com</t>
+          <t>poojapawankamble@gmail.com</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>+91 9146611275</t>
+          <t>050 267 0475</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>Indian</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Coordinator
+• Payroll System
+November 2020 – October 2022
+• T, HRIS, Coordinated, Problem-Solving, PPT, MANAGER
+HR Manager
+LIFE PLUS
+November 2022 – October 2024, Organizational Development: Managing, Human Resources, Marathi &amp; Hindi
+, Cultural Sensitivity and Diversity Management, Maharashtra, Dubai, Mumbai University, India, leadership teams to drive organizational
+success while</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pooja Kamble </t>
+          <t>Your Name</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>poojapawankamble@gmail.com</t>
+          <t>First.lastname@selu.edu</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>050 267 0475</t>
+          <t>985-555-1234</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>SLU Food Services, Covington, Southeastern Louisiana University, SoutheasternLouisiana University, Position, August2020–Present
+VolleyballTeam, Southeastern, LA, Student-Athlete AdvisoryCommittee, • City, CERTIFICATIONS &amp;SKILLS
+● CPR &amp;, Hammond, Monitoredand, YourRole/Position, AidCertified, LEADERSHIPEXPERIENCE
+Student Athlete,YourRole/Position, LEADERSHIPEXPERIENCE
+Student Athlete, Role/Position, August2020–Present
+VolleyballTeam, Sout, Basketball CampCoach/Coordinator, WORKEXPERIENCE
+Dining RoomAttendant, Coordinator,Hammond, LA
+● Instructed 60-70 1st–9thgradeathlet, Parksand Recreation, Microsoft Word, ManagerTraining Program withinthe firstmonth ofwork
+Babys</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Student Athlete</t>
+          <t>Masab A. Kadir Kalave</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>First.lastname@selu.edu</t>
+          <t>masabkalave@gmail.com</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>985-555-1234</t>
+          <t>+91 9146611275</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Indian</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>WPP Marketing Media, Getwell Pharmaceuticals &amp; Cosmetics, Team Player
+• Skilled, Urdu, Computer Operating
+• Certificate, Reconciliations
+Compliance
+Profile Summary Journal Entries &amp; General
+Ledger
+• A, • Monitor, Saudi Arabia, • Ensuring, AR, • Preparation, Navi Mumbai, &amp; Passing, VAT, Education &amp; Credentials Core Competencies
+• MBA, • Handled, Starcup Coffee Co. Dammam, • Process, Mumbai University, International Financial Reporting
+Standards (IFRS, • Validate AP Invoices, • Received, MysorePersonal Details
+Date of Birth, GAP, Finance &amp;, AP, • Establishing, Arabic, • Maintaining, Consultant in CFO Service
+Key Result Areas:
+• Handling accou, role of AR, AP, GL, etc.
+• Responsible for day-to-day, • Reconcile, • Summarized, • T-100 “Accounting Fundamental” Certification
+• 1-month, MIS &amp; Reporting, Kolhapur Board, • Monitored, Manager to develop internal controls and evaluating the f, General Accounting
+Practices, Certifications &amp; Trainings
+• Certificate, Accounts Payable
+Key Result Areas, Sales &amp; Marketing
+profit &amp; loss, New Delhi, D.R Congo Kinshasa, Account, GL, • Handling, Infosys, Mumbai, • Analyzed, CFO Service
+Key Result Areas, Pune University, Pune as Junior Accountant
+Key Result Areas, • Cooperation, India, • Reconciled</t>
         </is>
       </c>
     </row>
@@ -652,9 +759,26 @@
           <t>Not Found</t>
         </is>
       </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>Indian</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Obstetrics, Dubai, titled “MEDEX – 1” in Feb 2002 in India, targeted towar, Patient Safety, DHA, Ireland, Germany, DR, Andartemis Hospital, GYN, Reproductive Medicine, Private Hospital, Quality and Safety, Quality and Service, New Delhi, Delhi Medical Council, Delhi, Indian Medical Council 1997, American College of Obstetrics and Gynaecology
+Masters, Delhi University Rotatory, Medcare Women and Child Hospital, Obstetrics &amp; Gynaecology, Jordanian Board Obgy, Bokaro, Post Graduation, Delhi Medical Council Active, MANAGEMENT &amp; ADMINISTRATIVE, Courses &amp; Meetings, AMC, Clinical Risk Management, congress, Laparoscopy, OPD, Explained, Qatar, Breech, GMC Registered:, Prudence Hospital, Specialist Obstetrics and Gynaecology
+Key, Fortis Hospital, Gynaecologists, Medical Council of India, Hysteroscopy – Keil University, India, Specialist
+Key Deliverables:
+(cid:0) Performing initial asse, Royal College of Obstetricians, MDT, UK, ERP, MCI, Pulse Polio Program, Audit of Surgical Site Infection Post Caesarean Section, Keil University, Monthly Neonatal, Safdarjung Hospital Delhi University, leadership, the capacity to think beyond the
+prominent, Consultant
+Duration: Max Hospital, New Delhi, as Attending C, Labour, Jordanian Board, Endoscopy, NAHQ (National Association for Healthcare Quality, Success, Govt, Intrapartum Care, OET, Private Hospitals – Factors Affecting, Rate of VBAC, Specialist
+Key Deliverables, Gynaecological Endoscopy, role in delivering infants and caring for mothers for, QUALITY &amp; SAFETY, PDSA, GMC Registered Completed AMC Registration and, American College of Obstetrics and Gynaecology, Singla Polyclinic, Lady Hardinge Medical College Delhi University, Healthcare, City Hospital, Emirates Specialty Hospital, Oxytocin, NMC Hospital, American College, Bhagwati Hospital, ANC, The View Hospital</t>
         </is>
       </c>
     </row>
